--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,76 +40,85 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>social</t>
@@ -473,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,10 +490,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -545,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -563,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -595,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -613,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -642,13 +651,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -660,19 +669,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5">
         <v>0.9</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -684,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -692,13 +701,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9545454545454546</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -710,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>0.9</v>
+      </c>
+      <c r="L6">
+        <v>27</v>
+      </c>
+      <c r="M6">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6">
-        <v>0.82</v>
-      </c>
-      <c r="L6">
-        <v>41</v>
-      </c>
-      <c r="M6">
-        <v>41</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -742,13 +751,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9038461538461539</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -760,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.6842105263157895</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -784,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -792,13 +801,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -810,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K8">
         <v>0.5862068965517241</v>
@@ -842,7 +851,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -860,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.4933333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -884,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -892,13 +901,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.675</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -910,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.4833333333333333</v>
+        <v>0.52</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -934,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -942,7 +951,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -960,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.04189435336976321</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -984,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1052</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -992,13 +1001,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1010,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1018,13 +1027,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5882352941176471</v>
+        <v>0.55</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1036,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1044,13 +1053,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.4855072463768116</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1062,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1070,13 +1079,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.463768115942029</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C15">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1088,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1096,25 +1105,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3191489361702128</v>
+        <v>0.375</v>
       </c>
       <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>15</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1122,13 +1131,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2571428571428571</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1140,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1148,13 +1157,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2564102564102564</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1166,7 +1175,59 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.3404255319148936</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
